--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camillabelponer/Desktop/APC/Neighbourhood/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82249D6-A5D5-374C-8D4A-F37A00F4D158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26313E1-A5FA-F84C-B8B4-07DEEF492BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="26740" windowHeight="14420" xr2:uid="{04712262-FD0C-9F42-848F-74B255FB0279}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t>Fede4_R</t>
   </si>
@@ -442,7 +442,7 @@
   <dimension ref="B2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,9 +476,6 @@
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
